--- a/BuildSheet.xlsx
+++ b/BuildSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9690" yWindow="285" windowWidth="28455" windowHeight="12465" activeTab="1"/>
+    <workbookView xWindow="9690" yWindow="285" windowWidth="28455" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="120">
   <si>
     <t>OKLAHOMA DEPARTMENT OF ENVIRONMENTAL QUALITY</t>
   </si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>MOR AND RETURN TO DEQ BY THE 10TH OF NEXT MONTH.</t>
+  </si>
+  <si>
+    <t>Tishomingo</t>
+  </si>
+  <si>
+    <t>606 W. 6th St.</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1120,50 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1122,80 +1171,28 @@
     </xf>
     <xf numFmtId="166" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1214,15 +1211,24 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1590,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IW55"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1725,11 +1731,13 @@
       <c r="AJ3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AK3" s="179"/>
-      <c r="AL3" s="179"/>
+      <c r="AK3" s="162" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL3" s="162"/>
       <c r="AM3" s="19"/>
     </row>
-    <row r="4" spans="1:39" s="6" customFormat="1">
+    <row r="4" spans="1:39" s="6" customFormat="1" ht="14.25" thickTop="1" thickBot="1">
       <c r="R4" s="13"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
@@ -1751,43 +1759,59 @@
       <c r="AJ4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AK4" s="180"/>
-      <c r="AL4" s="180"/>
+      <c r="AK4" s="163">
+        <v>1010815</v>
+      </c>
+      <c r="AL4" s="163"/>
       <c r="AM4" s="19"/>
     </row>
-    <row r="5" spans="1:39" s="6" customFormat="1">
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="Q5" s="181"/>
-      <c r="R5" s="181"/>
-      <c r="S5" s="181"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="181"/>
-      <c r="V5" s="181"/>
-      <c r="X5" s="182"/>
-      <c r="Y5" s="182"/>
+    <row r="5" spans="1:39" s="6" customFormat="1" ht="14.25" thickTop="1" thickBot="1">
+      <c r="B5" s="164" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="164" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="195" t="s">
+        <v>118</v>
+      </c>
+      <c r="S5" s="182"/>
+      <c r="T5" s="182"/>
+      <c r="U5" s="182"/>
+      <c r="V5" s="182"/>
+      <c r="W5" s="182"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="182">
+        <v>73460</v>
+      </c>
+      <c r="AA5" s="182"/>
+      <c r="AB5" s="182"/>
+      <c r="AC5" s="182"/>
       <c r="AH5" s="20"/>
       <c r="AI5" s="20"/>
       <c r="AJ5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AK5" s="180"/>
-      <c r="AL5" s="180"/>
+      <c r="AK5" s="163"/>
+      <c r="AL5" s="163"/>
       <c r="AM5" s="21"/>
     </row>
-    <row r="6" spans="1:39" s="6" customFormat="1">
+    <row r="6" spans="1:39" s="6" customFormat="1" ht="13.5" thickTop="1">
       <c r="B6" s="22" t="s">
         <v>9</v>
       </c>
@@ -1810,8 +1834,8 @@
       </c>
       <c r="AH6" s="22"/>
       <c r="AJ6" s="18"/>
-      <c r="AK6" s="170"/>
-      <c r="AL6" s="170"/>
+      <c r="AK6" s="165"/>
+      <c r="AL6" s="165"/>
       <c r="AM6" s="19"/>
     </row>
     <row r="7" spans="1:39" s="6" customFormat="1">
@@ -1820,16 +1844,16 @@
       <c r="S7" s="23"/>
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
-      <c r="V7" s="171"/>
-      <c r="W7" s="171"/>
-      <c r="X7" s="171"/>
-      <c r="Y7" s="171"/>
-      <c r="Z7" s="171"/>
-      <c r="AA7" s="171"/>
-      <c r="AB7" s="171"/>
-      <c r="AC7" s="171"/>
-      <c r="AD7" s="171"/>
-      <c r="AE7" s="171"/>
+      <c r="V7" s="166"/>
+      <c r="W7" s="166"/>
+      <c r="X7" s="166"/>
+      <c r="Y7" s="166"/>
+      <c r="Z7" s="166"/>
+      <c r="AA7" s="166"/>
+      <c r="AB7" s="166"/>
+      <c r="AC7" s="166"/>
+      <c r="AD7" s="166"/>
+      <c r="AE7" s="166"/>
       <c r="AF7" s="22"/>
       <c r="AH7" s="22"/>
       <c r="AJ7" s="18"/>
@@ -1844,64 +1868,64 @@
       <c r="B8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="172" t="s">
+      <c r="C8" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="172"/>
-      <c r="H8" s="172"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
       <c r="I8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="173" t="s">
+      <c r="J8" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="173"/>
-      <c r="L8" s="173"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="173"/>
-      <c r="R8" s="172" t="s">
+      <c r="K8" s="168"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="168"/>
+      <c r="N8" s="168"/>
+      <c r="O8" s="168"/>
+      <c r="P8" s="168"/>
+      <c r="Q8" s="168"/>
+      <c r="R8" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="172"/>
-      <c r="T8" s="172"/>
-      <c r="U8" s="172"/>
-      <c r="V8" s="172" t="s">
+      <c r="S8" s="167"/>
+      <c r="T8" s="167"/>
+      <c r="U8" s="167"/>
+      <c r="V8" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="W8" s="172"/>
-      <c r="X8" s="172"/>
-      <c r="Y8" s="172"/>
-      <c r="Z8" s="172" t="s">
+      <c r="W8" s="167"/>
+      <c r="X8" s="167"/>
+      <c r="Y8" s="167"/>
+      <c r="Z8" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="AA8" s="172"/>
-      <c r="AB8" s="172"/>
+      <c r="AA8" s="167"/>
+      <c r="AB8" s="167"/>
       <c r="AC8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AD8" s="174" t="s">
+      <c r="AD8" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="AE8" s="174"/>
-      <c r="AF8" s="174" t="s">
+      <c r="AE8" s="169"/>
+      <c r="AF8" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="AG8" s="174"/>
-      <c r="AH8" s="174" t="s">
+      <c r="AG8" s="169"/>
+      <c r="AH8" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="AI8" s="174"/>
-      <c r="AJ8" s="175" t="s">
+      <c r="AI8" s="169"/>
+      <c r="AJ8" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="AK8" s="175"/>
-      <c r="AL8" s="175"/>
+      <c r="AK8" s="170"/>
+      <c r="AL8" s="170"/>
       <c r="AM8" s="30"/>
     </row>
     <row r="9" spans="1:39" s="41" customFormat="1" ht="12.6" customHeight="1">
@@ -1909,14 +1933,14 @@
       <c r="B9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="176" t="s">
+      <c r="C9" s="171" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="176"/>
-      <c r="E9" s="176"/>
-      <c r="F9" s="176"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="176"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
       <c r="I9" s="33" t="s">
         <v>14</v>
       </c>
@@ -1938,10 +1962,10 @@
       <c r="O9" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="177" t="s">
+      <c r="P9" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="177"/>
+      <c r="Q9" s="172"/>
       <c r="R9" s="36"/>
       <c r="S9" s="36"/>
       <c r="T9" s="37"/>
@@ -1956,17 +1980,17 @@
       <c r="AC9" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="AD9" s="178" t="s">
+      <c r="AD9" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="AE9" s="178"/>
-      <c r="AF9" s="174"/>
-      <c r="AG9" s="174"/>
-      <c r="AH9" s="174"/>
-      <c r="AI9" s="174"/>
-      <c r="AJ9" s="175"/>
-      <c r="AK9" s="175"/>
-      <c r="AL9" s="175"/>
+      <c r="AE9" s="173"/>
+      <c r="AF9" s="169"/>
+      <c r="AG9" s="169"/>
+      <c r="AH9" s="169"/>
+      <c r="AI9" s="169"/>
+      <c r="AJ9" s="170"/>
+      <c r="AK9" s="170"/>
+      <c r="AL9" s="170"/>
     </row>
     <row r="10" spans="1:39" s="41" customFormat="1" ht="12.6" customHeight="1">
       <c r="A10" s="32"/>
@@ -2012,17 +2036,17 @@
       </c>
       <c r="AD10" s="32"/>
       <c r="AE10" s="39"/>
-      <c r="AF10" s="178" t="s">
+      <c r="AF10" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="AG10" s="178"/>
-      <c r="AH10" s="178" t="s">
+      <c r="AG10" s="173"/>
+      <c r="AH10" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="AI10" s="178"/>
-      <c r="AJ10" s="175"/>
-      <c r="AK10" s="175"/>
-      <c r="AL10" s="175"/>
+      <c r="AI10" s="173"/>
+      <c r="AJ10" s="170"/>
+      <c r="AK10" s="170"/>
+      <c r="AL10" s="170"/>
     </row>
     <row r="11" spans="1:39" s="41" customFormat="1" ht="12.6" customHeight="1">
       <c r="A11" s="46"/>
@@ -2112,9 +2136,9 @@
       <c r="AI11" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AJ11" s="175"/>
-      <c r="AK11" s="175"/>
-      <c r="AL11" s="175"/>
+      <c r="AJ11" s="170"/>
+      <c r="AK11" s="170"/>
+      <c r="AL11" s="170"/>
     </row>
     <row r="12" spans="1:39" s="6" customFormat="1" ht="12.6" customHeight="1">
       <c r="A12" s="57">
@@ -2154,9 +2178,9 @@
       <c r="AG12" s="62"/>
       <c r="AH12" s="60"/>
       <c r="AI12" s="60"/>
-      <c r="AJ12" s="168"/>
-      <c r="AK12" s="168"/>
-      <c r="AL12" s="168"/>
+      <c r="AJ12" s="174"/>
+      <c r="AK12" s="174"/>
+      <c r="AL12" s="174"/>
     </row>
     <row r="13" spans="1:39" s="6" customFormat="1" ht="12.6" customHeight="1">
       <c r="A13" s="57">
@@ -2196,9 +2220,9 @@
       <c r="AG13" s="62"/>
       <c r="AH13" s="63"/>
       <c r="AI13" s="63"/>
-      <c r="AJ13" s="168"/>
-      <c r="AK13" s="168"/>
-      <c r="AL13" s="168"/>
+      <c r="AJ13" s="174"/>
+      <c r="AK13" s="174"/>
+      <c r="AL13" s="174"/>
     </row>
     <row r="14" spans="1:39" s="6" customFormat="1" ht="12.6" customHeight="1">
       <c r="A14" s="57">
@@ -2238,9 +2262,9 @@
       <c r="AG14" s="62"/>
       <c r="AH14" s="63"/>
       <c r="AI14" s="63"/>
-      <c r="AJ14" s="168"/>
-      <c r="AK14" s="168"/>
-      <c r="AL14" s="168"/>
+      <c r="AJ14" s="174"/>
+      <c r="AK14" s="174"/>
+      <c r="AL14" s="174"/>
     </row>
     <row r="15" spans="1:39" s="6" customFormat="1" ht="12.6" customHeight="1">
       <c r="A15" s="57">
@@ -2280,9 +2304,9 @@
       <c r="AG15" s="62"/>
       <c r="AH15" s="63"/>
       <c r="AI15" s="63"/>
-      <c r="AJ15" s="168"/>
-      <c r="AK15" s="168"/>
-      <c r="AL15" s="168"/>
+      <c r="AJ15" s="174"/>
+      <c r="AK15" s="174"/>
+      <c r="AL15" s="174"/>
     </row>
     <row r="16" spans="1:39" s="6" customFormat="1" ht="12.6" customHeight="1">
       <c r="A16" s="57">
@@ -2322,9 +2346,9 @@
       <c r="AG16" s="62"/>
       <c r="AH16" s="63"/>
       <c r="AI16" s="63"/>
-      <c r="AJ16" s="168"/>
-      <c r="AK16" s="168"/>
-      <c r="AL16" s="168"/>
+      <c r="AJ16" s="174"/>
+      <c r="AK16" s="174"/>
+      <c r="AL16" s="174"/>
     </row>
     <row r="17" spans="1:38" s="6" customFormat="1" ht="12.6" customHeight="1">
       <c r="A17" s="57">
@@ -2364,9 +2388,9 @@
       <c r="AG17" s="62"/>
       <c r="AH17" s="63"/>
       <c r="AI17" s="63"/>
-      <c r="AJ17" s="168"/>
-      <c r="AK17" s="168"/>
-      <c r="AL17" s="168"/>
+      <c r="AJ17" s="174"/>
+      <c r="AK17" s="174"/>
+      <c r="AL17" s="174"/>
     </row>
     <row r="18" spans="1:38" s="6" customFormat="1" ht="12.6" customHeight="1">
       <c r="A18" s="57">
@@ -2406,9 +2430,9 @@
       <c r="AG18" s="62"/>
       <c r="AH18" s="63"/>
       <c r="AI18" s="63"/>
-      <c r="AJ18" s="168"/>
-      <c r="AK18" s="168"/>
-      <c r="AL18" s="168"/>
+      <c r="AJ18" s="174"/>
+      <c r="AK18" s="174"/>
+      <c r="AL18" s="174"/>
     </row>
     <row r="19" spans="1:38" s="6" customFormat="1" ht="12.6" customHeight="1">
       <c r="A19" s="57">
@@ -2448,9 +2472,9 @@
       <c r="AG19" s="62"/>
       <c r="AH19" s="63"/>
       <c r="AI19" s="63"/>
-      <c r="AJ19" s="168"/>
-      <c r="AK19" s="168"/>
-      <c r="AL19" s="168"/>
+      <c r="AJ19" s="174"/>
+      <c r="AK19" s="174"/>
+      <c r="AL19" s="174"/>
     </row>
     <row r="20" spans="1:38" s="6" customFormat="1" ht="12.6" customHeight="1">
       <c r="A20" s="57">
@@ -2490,9 +2514,9 @@
       <c r="AG20" s="62"/>
       <c r="AH20" s="63"/>
       <c r="AI20" s="63"/>
-      <c r="AJ20" s="168"/>
-      <c r="AK20" s="168"/>
-      <c r="AL20" s="168"/>
+      <c r="AJ20" s="174"/>
+      <c r="AK20" s="174"/>
+      <c r="AL20" s="174"/>
     </row>
     <row r="21" spans="1:38" s="6" customFormat="1" ht="12.6" customHeight="1">
       <c r="A21" s="57">
@@ -2532,9 +2556,9 @@
       <c r="AG21" s="62"/>
       <c r="AH21" s="63"/>
       <c r="AI21" s="63"/>
-      <c r="AJ21" s="168"/>
-      <c r="AK21" s="168"/>
-      <c r="AL21" s="168"/>
+      <c r="AJ21" s="174"/>
+      <c r="AK21" s="174"/>
+      <c r="AL21" s="174"/>
     </row>
     <row r="22" spans="1:38" ht="12.6" customHeight="1">
       <c r="A22" s="57">
@@ -2574,9 +2598,9 @@
       <c r="AG22" s="62"/>
       <c r="AH22" s="63"/>
       <c r="AI22" s="63"/>
-      <c r="AJ22" s="168"/>
-      <c r="AK22" s="168"/>
-      <c r="AL22" s="168"/>
+      <c r="AJ22" s="174"/>
+      <c r="AK22" s="174"/>
+      <c r="AL22" s="174"/>
     </row>
     <row r="23" spans="1:38" ht="12.6" customHeight="1">
       <c r="A23" s="57">
@@ -2616,9 +2640,9 @@
       <c r="AG23" s="62"/>
       <c r="AH23" s="63"/>
       <c r="AI23" s="63"/>
-      <c r="AJ23" s="168"/>
-      <c r="AK23" s="168"/>
-      <c r="AL23" s="168"/>
+      <c r="AJ23" s="174"/>
+      <c r="AK23" s="174"/>
+      <c r="AL23" s="174"/>
     </row>
     <row r="24" spans="1:38" ht="12.6" customHeight="1">
       <c r="A24" s="57">
@@ -2658,9 +2682,9 @@
       <c r="AG24" s="62"/>
       <c r="AH24" s="63"/>
       <c r="AI24" s="63"/>
-      <c r="AJ24" s="168"/>
-      <c r="AK24" s="168"/>
-      <c r="AL24" s="168"/>
+      <c r="AJ24" s="174"/>
+      <c r="AK24" s="174"/>
+      <c r="AL24" s="174"/>
     </row>
     <row r="25" spans="1:38" ht="12.6" customHeight="1">
       <c r="A25" s="57">
@@ -2700,9 +2724,9 @@
       <c r="AG25" s="62"/>
       <c r="AH25" s="63"/>
       <c r="AI25" s="63"/>
-      <c r="AJ25" s="168"/>
-      <c r="AK25" s="168"/>
-      <c r="AL25" s="168"/>
+      <c r="AJ25" s="174"/>
+      <c r="AK25" s="174"/>
+      <c r="AL25" s="174"/>
     </row>
     <row r="26" spans="1:38" ht="12.6" customHeight="1">
       <c r="A26" s="57">
@@ -2742,9 +2766,9 @@
       <c r="AG26" s="62"/>
       <c r="AH26" s="63"/>
       <c r="AI26" s="63"/>
-      <c r="AJ26" s="168"/>
-      <c r="AK26" s="168"/>
-      <c r="AL26" s="168"/>
+      <c r="AJ26" s="174"/>
+      <c r="AK26" s="174"/>
+      <c r="AL26" s="174"/>
     </row>
     <row r="27" spans="1:38" ht="12.6" customHeight="1">
       <c r="A27" s="57">
@@ -2784,9 +2808,9 @@
       <c r="AG27" s="62"/>
       <c r="AH27" s="63"/>
       <c r="AI27" s="63"/>
-      <c r="AJ27" s="168"/>
-      <c r="AK27" s="168"/>
-      <c r="AL27" s="168"/>
+      <c r="AJ27" s="174"/>
+      <c r="AK27" s="174"/>
+      <c r="AL27" s="174"/>
     </row>
     <row r="28" spans="1:38" ht="12.6" customHeight="1">
       <c r="A28" s="57">
@@ -2826,9 +2850,9 @@
       <c r="AG28" s="62"/>
       <c r="AH28" s="63"/>
       <c r="AI28" s="63"/>
-      <c r="AJ28" s="168"/>
-      <c r="AK28" s="168"/>
-      <c r="AL28" s="168"/>
+      <c r="AJ28" s="174"/>
+      <c r="AK28" s="174"/>
+      <c r="AL28" s="174"/>
     </row>
     <row r="29" spans="1:38" ht="12.6" customHeight="1">
       <c r="A29" s="57">
@@ -2868,9 +2892,9 @@
       <c r="AG29" s="62"/>
       <c r="AH29" s="63"/>
       <c r="AI29" s="63"/>
-      <c r="AJ29" s="168"/>
-      <c r="AK29" s="168"/>
-      <c r="AL29" s="168"/>
+      <c r="AJ29" s="174"/>
+      <c r="AK29" s="174"/>
+      <c r="AL29" s="174"/>
     </row>
     <row r="30" spans="1:38" ht="12.6" customHeight="1">
       <c r="A30" s="57">
@@ -2910,9 +2934,9 @@
       <c r="AG30" s="62"/>
       <c r="AH30" s="63"/>
       <c r="AI30" s="63"/>
-      <c r="AJ30" s="168"/>
-      <c r="AK30" s="168"/>
-      <c r="AL30" s="168"/>
+      <c r="AJ30" s="174"/>
+      <c r="AK30" s="174"/>
+      <c r="AL30" s="174"/>
     </row>
     <row r="31" spans="1:38" ht="12.6" customHeight="1">
       <c r="A31" s="57">
@@ -2952,9 +2976,9 @@
       <c r="AG31" s="62"/>
       <c r="AH31" s="63"/>
       <c r="AI31" s="63"/>
-      <c r="AJ31" s="168"/>
-      <c r="AK31" s="168"/>
-      <c r="AL31" s="168"/>
+      <c r="AJ31" s="174"/>
+      <c r="AK31" s="174"/>
+      <c r="AL31" s="174"/>
     </row>
     <row r="32" spans="1:38" ht="12.6" customHeight="1">
       <c r="A32" s="57">
@@ -2994,9 +3018,9 @@
       <c r="AG32" s="62"/>
       <c r="AH32" s="63"/>
       <c r="AI32" s="63"/>
-      <c r="AJ32" s="168"/>
-      <c r="AK32" s="168"/>
-      <c r="AL32" s="168"/>
+      <c r="AJ32" s="174"/>
+      <c r="AK32" s="174"/>
+      <c r="AL32" s="174"/>
     </row>
     <row r="33" spans="1:38" ht="12.6" customHeight="1">
       <c r="A33" s="57">
@@ -3036,9 +3060,9 @@
       <c r="AG33" s="62"/>
       <c r="AH33" s="63"/>
       <c r="AI33" s="63"/>
-      <c r="AJ33" s="168"/>
-      <c r="AK33" s="168"/>
-      <c r="AL33" s="168"/>
+      <c r="AJ33" s="174"/>
+      <c r="AK33" s="174"/>
+      <c r="AL33" s="174"/>
     </row>
     <row r="34" spans="1:38" ht="12.6" customHeight="1">
       <c r="A34" s="57">
@@ -3078,9 +3102,9 @@
       <c r="AG34" s="62"/>
       <c r="AH34" s="63"/>
       <c r="AI34" s="63"/>
-      <c r="AJ34" s="168"/>
-      <c r="AK34" s="168"/>
-      <c r="AL34" s="168"/>
+      <c r="AJ34" s="174"/>
+      <c r="AK34" s="174"/>
+      <c r="AL34" s="174"/>
     </row>
     <row r="35" spans="1:38" ht="12.6" customHeight="1">
       <c r="A35" s="57">
@@ -3120,9 +3144,9 @@
       <c r="AG35" s="62"/>
       <c r="AH35" s="63"/>
       <c r="AI35" s="63"/>
-      <c r="AJ35" s="168"/>
-      <c r="AK35" s="168"/>
-      <c r="AL35" s="168"/>
+      <c r="AJ35" s="174"/>
+      <c r="AK35" s="174"/>
+      <c r="AL35" s="174"/>
     </row>
     <row r="36" spans="1:38" ht="12.6" customHeight="1">
       <c r="A36" s="57">
@@ -3162,9 +3186,9 @@
       <c r="AG36" s="62"/>
       <c r="AH36" s="63"/>
       <c r="AI36" s="63"/>
-      <c r="AJ36" s="168"/>
-      <c r="AK36" s="168"/>
-      <c r="AL36" s="168"/>
+      <c r="AJ36" s="174"/>
+      <c r="AK36" s="174"/>
+      <c r="AL36" s="174"/>
     </row>
     <row r="37" spans="1:38" ht="12.6" customHeight="1">
       <c r="A37" s="57">
@@ -3204,9 +3228,9 @@
       <c r="AG37" s="62"/>
       <c r="AH37" s="63"/>
       <c r="AI37" s="63"/>
-      <c r="AJ37" s="168"/>
-      <c r="AK37" s="168"/>
-      <c r="AL37" s="168"/>
+      <c r="AJ37" s="174"/>
+      <c r="AK37" s="174"/>
+      <c r="AL37" s="174"/>
     </row>
     <row r="38" spans="1:38" ht="12.6" customHeight="1">
       <c r="A38" s="57">
@@ -3246,9 +3270,9 @@
       <c r="AG38" s="62"/>
       <c r="AH38" s="63"/>
       <c r="AI38" s="63"/>
-      <c r="AJ38" s="168"/>
-      <c r="AK38" s="168"/>
-      <c r="AL38" s="168"/>
+      <c r="AJ38" s="174"/>
+      <c r="AK38" s="174"/>
+      <c r="AL38" s="174"/>
     </row>
     <row r="39" spans="1:38" ht="12.6" customHeight="1">
       <c r="A39" s="57">
@@ -3288,9 +3312,9 @@
       <c r="AG39" s="62"/>
       <c r="AH39" s="63"/>
       <c r="AI39" s="63"/>
-      <c r="AJ39" s="168"/>
-      <c r="AK39" s="168"/>
-      <c r="AL39" s="168"/>
+      <c r="AJ39" s="174"/>
+      <c r="AK39" s="174"/>
+      <c r="AL39" s="174"/>
     </row>
     <row r="40" spans="1:38" ht="12.6" customHeight="1">
       <c r="A40" s="57">
@@ -3330,9 +3354,9 @@
       <c r="AG40" s="62"/>
       <c r="AH40" s="63"/>
       <c r="AI40" s="63"/>
-      <c r="AJ40" s="168"/>
-      <c r="AK40" s="168"/>
-      <c r="AL40" s="168"/>
+      <c r="AJ40" s="174"/>
+      <c r="AK40" s="174"/>
+      <c r="AL40" s="174"/>
     </row>
     <row r="41" spans="1:38" ht="12.6" customHeight="1">
       <c r="A41" s="57">
@@ -3372,9 +3396,9 @@
       <c r="AG41" s="62"/>
       <c r="AH41" s="63"/>
       <c r="AI41" s="63"/>
-      <c r="AJ41" s="168"/>
-      <c r="AK41" s="168"/>
-      <c r="AL41" s="168"/>
+      <c r="AJ41" s="174"/>
+      <c r="AK41" s="174"/>
+      <c r="AL41" s="174"/>
     </row>
     <row r="42" spans="1:38" ht="12.6" customHeight="1">
       <c r="A42" s="64">
@@ -3414,9 +3438,9 @@
       <c r="AG42" s="62"/>
       <c r="AH42" s="66"/>
       <c r="AI42" s="66"/>
-      <c r="AJ42" s="168"/>
-      <c r="AK42" s="168"/>
-      <c r="AL42" s="168"/>
+      <c r="AJ42" s="174"/>
+      <c r="AK42" s="174"/>
+      <c r="AL42" s="174"/>
     </row>
     <row r="43" spans="1:38" ht="12.6" customHeight="1">
       <c r="A43" s="67" t="s">
@@ -3549,9 +3573,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AJ43" s="169"/>
-      <c r="AK43" s="169"/>
-      <c r="AL43" s="169"/>
+      <c r="AJ43" s="175"/>
+      <c r="AK43" s="175"/>
+      <c r="AL43" s="175"/>
     </row>
     <row r="44" spans="1:38" ht="12.6" customHeight="1">
       <c r="A44" s="77" t="s">
@@ -3684,21 +3708,21 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AJ44" s="169"/>
-      <c r="AK44" s="169"/>
-      <c r="AL44" s="169"/>
+      <c r="AJ44" s="175"/>
+      <c r="AK44" s="175"/>
+      <c r="AL44" s="175"/>
     </row>
     <row r="45" spans="1:38" s="6" customFormat="1" ht="12.6" customHeight="1">
       <c r="A45" s="31" t="s">
         <v>51</v>
       </c>
       <c r="B45" s="31"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
-      <c r="E45" s="163"/>
-      <c r="F45" s="163"/>
-      <c r="G45" s="163"/>
-      <c r="H45" s="163"/>
+      <c r="C45" s="176"/>
+      <c r="D45" s="176"/>
+      <c r="E45" s="176"/>
+      <c r="F45" s="176"/>
+      <c r="G45" s="176"/>
+      <c r="H45" s="176"/>
       <c r="I45" s="30"/>
       <c r="J45" s="31"/>
       <c r="K45" s="38"/>
@@ -3733,12 +3757,12 @@
         <v>52</v>
       </c>
       <c r="B46" s="31"/>
-      <c r="C46" s="164"/>
-      <c r="D46" s="164"/>
-      <c r="E46" s="164"/>
-      <c r="F46" s="164"/>
-      <c r="G46" s="164"/>
-      <c r="H46" s="164"/>
+      <c r="C46" s="177"/>
+      <c r="D46" s="177"/>
+      <c r="E46" s="177"/>
+      <c r="F46" s="177"/>
+      <c r="G46" s="177"/>
+      <c r="H46" s="177"/>
       <c r="I46" s="30"/>
       <c r="J46" s="31"/>
       <c r="K46" s="31"/>
@@ -3747,8 +3771,8 @@
       </c>
       <c r="M46" s="31"/>
       <c r="N46" s="31"/>
-      <c r="P46" s="162"/>
-      <c r="Q46" s="162"/>
+      <c r="P46" s="178"/>
+      <c r="Q46" s="178"/>
       <c r="R46" s="31"/>
       <c r="S46" s="31"/>
       <c r="T46" s="31"/>
@@ -3777,12 +3801,12 @@
         <v>55</v>
       </c>
       <c r="B47" s="31"/>
-      <c r="C47" s="164"/>
-      <c r="D47" s="164"/>
-      <c r="E47" s="164"/>
-      <c r="F47" s="164"/>
-      <c r="G47" s="164"/>
-      <c r="H47" s="164"/>
+      <c r="C47" s="177"/>
+      <c r="D47" s="177"/>
+      <c r="E47" s="177"/>
+      <c r="F47" s="177"/>
+      <c r="G47" s="177"/>
+      <c r="H47" s="177"/>
       <c r="I47" s="30"/>
       <c r="J47" s="31"/>
       <c r="K47" s="31"/>
@@ -3819,12 +3843,12 @@
         <v>57</v>
       </c>
       <c r="B48" s="31"/>
-      <c r="C48" s="163"/>
-      <c r="D48" s="163"/>
-      <c r="E48" s="163"/>
-      <c r="F48" s="163"/>
-      <c r="G48" s="163"/>
-      <c r="H48" s="163"/>
+      <c r="C48" s="176"/>
+      <c r="D48" s="176"/>
+      <c r="E48" s="176"/>
+      <c r="F48" s="176"/>
+      <c r="G48" s="176"/>
+      <c r="H48" s="176"/>
       <c r="I48" s="30"/>
       <c r="J48" s="31"/>
       <c r="K48" s="31"/>
@@ -3833,8 +3857,8 @@
       </c>
       <c r="M48" s="31"/>
       <c r="N48" s="31"/>
-      <c r="P48" s="162"/>
-      <c r="Q48" s="162"/>
+      <c r="P48" s="178"/>
+      <c r="Q48" s="178"/>
       <c r="R48" s="31"/>
       <c r="S48" s="31"/>
       <c r="T48" s="31"/>
@@ -3862,12 +3886,12 @@
         <v>60</v>
       </c>
       <c r="B49" s="31"/>
-      <c r="C49" s="164"/>
-      <c r="D49" s="164"/>
-      <c r="E49" s="164"/>
-      <c r="F49" s="164"/>
-      <c r="G49" s="164"/>
-      <c r="H49" s="164"/>
+      <c r="C49" s="177"/>
+      <c r="D49" s="177"/>
+      <c r="E49" s="177"/>
+      <c r="F49" s="177"/>
+      <c r="G49" s="177"/>
+      <c r="H49" s="177"/>
       <c r="I49" s="30"/>
       <c r="J49" s="31"/>
       <c r="K49" s="31"/>
@@ -3882,13 +3906,13 @@
         <v>61</v>
       </c>
       <c r="V49" s="31"/>
-      <c r="W49" s="167"/>
-      <c r="X49" s="167"/>
-      <c r="Y49" s="167"/>
-      <c r="Z49" s="167"/>
-      <c r="AA49" s="167"/>
-      <c r="AB49" s="167"/>
-      <c r="AC49" s="167"/>
+      <c r="W49" s="179"/>
+      <c r="X49" s="179"/>
+      <c r="Y49" s="179"/>
+      <c r="Z49" s="179"/>
+      <c r="AA49" s="179"/>
+      <c r="AB49" s="179"/>
+      <c r="AC49" s="179"/>
       <c r="AD49" s="31"/>
       <c r="AE49" s="31" t="s">
         <v>62</v>
@@ -3904,23 +3928,23 @@
         <v>63</v>
       </c>
       <c r="B50" s="31"/>
-      <c r="C50" s="164"/>
-      <c r="D50" s="164"/>
-      <c r="E50" s="164"/>
-      <c r="F50" s="164"/>
-      <c r="G50" s="164"/>
-      <c r="H50" s="164"/>
+      <c r="C50" s="177"/>
+      <c r="D50" s="177"/>
+      <c r="E50" s="177"/>
+      <c r="F50" s="177"/>
+      <c r="G50" s="177"/>
+      <c r="H50" s="177"/>
       <c r="I50" s="30"/>
       <c r="J50" s="31"/>
       <c r="K50" s="31"/>
       <c r="L50" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="P50" s="165" t="str">
+      <c r="P50" s="180" t="str">
         <f>IF(OR(B43="",I43=""),"",I43/B43)</f>
         <v/>
       </c>
-      <c r="Q50" s="165"/>
+      <c r="Q50" s="180"/>
       <c r="R50" s="31"/>
       <c r="S50" s="31"/>
       <c r="T50" s="31"/>
@@ -3948,15 +3972,15 @@
       <c r="B51" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="166" t="str">
+      <c r="C51" s="181" t="str">
         <f>IF(SUM(C45:C50)=0,"",SUM(C45:C50))</f>
         <v/>
       </c>
-      <c r="D51" s="166"/>
-      <c r="E51" s="166"/>
-      <c r="F51" s="166"/>
-      <c r="G51" s="166"/>
-      <c r="H51" s="166"/>
+      <c r="D51" s="181"/>
+      <c r="E51" s="181"/>
+      <c r="F51" s="181"/>
+      <c r="G51" s="181"/>
+      <c r="H51" s="181"/>
       <c r="I51" s="30"/>
       <c r="J51" s="31"/>
       <c r="K51" s="31"/>
@@ -3971,13 +3995,13 @@
         <v>65</v>
       </c>
       <c r="V51" s="31"/>
-      <c r="W51" s="167"/>
-      <c r="X51" s="167"/>
-      <c r="Y51" s="167"/>
-      <c r="Z51" s="167"/>
-      <c r="AA51" s="167"/>
-      <c r="AB51" s="167"/>
-      <c r="AC51" s="167"/>
+      <c r="W51" s="179"/>
+      <c r="X51" s="179"/>
+      <c r="Y51" s="179"/>
+      <c r="Z51" s="179"/>
+      <c r="AA51" s="179"/>
+      <c r="AB51" s="179"/>
+      <c r="AC51" s="179"/>
       <c r="AD51" s="31"/>
       <c r="AE51" s="31" t="s">
         <v>66</v>
@@ -3986,8 +4010,8 @@
       <c r="AG51" s="31"/>
       <c r="AH51" s="31"/>
       <c r="AI51" s="31"/>
-      <c r="AJ51" s="167"/>
-      <c r="AK51" s="167"/>
+      <c r="AJ51" s="179"/>
+      <c r="AK51" s="179"/>
       <c r="AL51" s="81"/>
     </row>
     <row r="52" spans="1:257" s="6" customFormat="1" ht="12.6" customHeight="1">
@@ -4006,8 +4030,8 @@
       </c>
       <c r="M52" s="31"/>
       <c r="N52" s="31"/>
-      <c r="P52" s="162"/>
-      <c r="Q52" s="162"/>
+      <c r="P52" s="178"/>
+      <c r="Q52" s="178"/>
       <c r="R52" s="31"/>
       <c r="S52" s="31"/>
       <c r="T52" s="31"/>
@@ -4030,11 +4054,11 @@
       <c r="C53" s="31"/>
       <c r="D53" s="31"/>
       <c r="E53" s="31"/>
-      <c r="H53" s="163" t="str">
+      <c r="H53" s="176" t="str">
         <f>IF(OR(B43="",C51=""),"",C51/(B43))</f>
         <v/>
       </c>
-      <c r="I53" s="163"/>
+      <c r="I53" s="176"/>
       <c r="J53" s="31"/>
       <c r="K53" s="31"/>
       <c r="L53" s="31"/>
@@ -4627,13 +4651,54 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="W51:AC51"/>
+    <mergeCell ref="AJ51:AK51"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="W49:AC49"/>
+    <mergeCell ref="AJ42:AL42"/>
+    <mergeCell ref="AJ43:AL43"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="AJ37:AL37"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AJ39:AL39"/>
+    <mergeCell ref="AJ40:AL40"/>
+    <mergeCell ref="AJ41:AL41"/>
+    <mergeCell ref="AJ32:AL32"/>
+    <mergeCell ref="AJ33:AL33"/>
+    <mergeCell ref="AJ34:AL34"/>
+    <mergeCell ref="AJ35:AL35"/>
+    <mergeCell ref="AJ36:AL36"/>
+    <mergeCell ref="AJ27:AL27"/>
+    <mergeCell ref="AJ28:AL28"/>
+    <mergeCell ref="AJ29:AL29"/>
+    <mergeCell ref="AJ30:AL30"/>
+    <mergeCell ref="AJ31:AL31"/>
+    <mergeCell ref="AJ22:AL22"/>
+    <mergeCell ref="AJ23:AL23"/>
+    <mergeCell ref="AJ24:AL24"/>
+    <mergeCell ref="AJ25:AL25"/>
+    <mergeCell ref="AJ26:AL26"/>
+    <mergeCell ref="AJ17:AL17"/>
+    <mergeCell ref="AJ18:AL18"/>
+    <mergeCell ref="AJ19:AL19"/>
+    <mergeCell ref="AJ20:AL20"/>
+    <mergeCell ref="AJ21:AL21"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="AJ14:AL14"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AJ16:AL16"/>
     <mergeCell ref="AK6:AL6"/>
     <mergeCell ref="V7:AE7"/>
     <mergeCell ref="C8:H8"/>
@@ -4650,54 +4715,13 @@
     <mergeCell ref="AD9:AE9"/>
     <mergeCell ref="AF10:AG10"/>
     <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="AJ14:AL14"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AJ18:AL18"/>
-    <mergeCell ref="AJ19:AL19"/>
-    <mergeCell ref="AJ20:AL20"/>
-    <mergeCell ref="AJ21:AL21"/>
-    <mergeCell ref="AJ22:AL22"/>
-    <mergeCell ref="AJ23:AL23"/>
-    <mergeCell ref="AJ24:AL24"/>
-    <mergeCell ref="AJ25:AL25"/>
-    <mergeCell ref="AJ26:AL26"/>
-    <mergeCell ref="AJ27:AL27"/>
-    <mergeCell ref="AJ28:AL28"/>
-    <mergeCell ref="AJ29:AL29"/>
-    <mergeCell ref="AJ30:AL30"/>
-    <mergeCell ref="AJ31:AL31"/>
-    <mergeCell ref="AJ32:AL32"/>
-    <mergeCell ref="AJ33:AL33"/>
-    <mergeCell ref="AJ34:AL34"/>
-    <mergeCell ref="AJ35:AL35"/>
-    <mergeCell ref="AJ36:AL36"/>
-    <mergeCell ref="AJ37:AL37"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AJ39:AL39"/>
-    <mergeCell ref="AJ40:AL40"/>
-    <mergeCell ref="AJ41:AL41"/>
-    <mergeCell ref="AJ42:AL42"/>
-    <mergeCell ref="AJ43:AL43"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="W51:AC51"/>
-    <mergeCell ref="AJ51:AK51"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="W49:AC49"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="Z5:AC5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4707,8 +4731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IW42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4855,7 +4879,9 @@
       <c r="AH3" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="AI3" s="93"/>
+      <c r="AI3" s="93" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="87"/>
@@ -4894,38 +4920,48 @@
       <c r="AH4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="AI4" s="93"/>
+      <c r="AI4" s="93">
+        <v>1010815</v>
+      </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="87"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
+      <c r="B5" s="164" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
       <c r="I5" s="94"/>
       <c r="J5" s="94"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="182"/>
-      <c r="N5" s="182"/>
-      <c r="O5" s="182"/>
+      <c r="K5" s="164" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="164"/>
       <c r="P5" s="95"/>
       <c r="Q5" s="95"/>
-      <c r="R5" s="193"/>
-      <c r="S5" s="193"/>
-      <c r="T5" s="193"/>
-      <c r="U5" s="193"/>
-      <c r="V5" s="193"/>
-      <c r="W5" s="193"/>
+      <c r="R5" s="195" t="s">
+        <v>118</v>
+      </c>
+      <c r="S5" s="182"/>
+      <c r="T5" s="182"/>
+      <c r="U5" s="182"/>
+      <c r="V5" s="182"/>
+      <c r="W5" s="182"/>
       <c r="X5" s="95"/>
       <c r="Y5" s="95"/>
-      <c r="Z5" s="193"/>
-      <c r="AA5" s="193"/>
-      <c r="AB5" s="193"/>
-      <c r="AC5" s="193"/>
+      <c r="Z5" s="182">
+        <v>73460</v>
+      </c>
+      <c r="AA5" s="182"/>
+      <c r="AB5" s="182"/>
+      <c r="AC5" s="182"/>
       <c r="AD5" s="96"/>
       <c r="AE5" s="97"/>
       <c r="AF5" s="92"/>
@@ -5018,65 +5054,65 @@
       <c r="AI7" s="105"/>
     </row>
     <row r="8" spans="1:35">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="183" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="194"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="183"/>
       <c r="L8" s="1"/>
       <c r="M8" s="87"/>
       <c r="N8" s="106"/>
       <c r="O8" s="107"/>
-      <c r="P8" s="195" t="s">
+      <c r="P8" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="Q8" s="195"/>
-      <c r="R8" s="195"/>
-      <c r="S8" s="195"/>
-      <c r="T8" s="195"/>
-      <c r="U8" s="195"/>
-      <c r="V8" s="195"/>
-      <c r="W8" s="195"/>
-      <c r="X8" s="195"/>
-      <c r="Y8" s="195" t="s">
+      <c r="Q8" s="184"/>
+      <c r="R8" s="184"/>
+      <c r="S8" s="184"/>
+      <c r="T8" s="184"/>
+      <c r="U8" s="184"/>
+      <c r="V8" s="184"/>
+      <c r="W8" s="184"/>
+      <c r="X8" s="184"/>
+      <c r="Y8" s="184" t="s">
         <v>72</v>
       </c>
-      <c r="Z8" s="195"/>
-      <c r="AA8" s="195"/>
-      <c r="AB8" s="195"/>
-      <c r="AC8" s="195"/>
-      <c r="AD8" s="195"/>
-      <c r="AE8" s="195"/>
-      <c r="AF8" s="195"/>
-      <c r="AG8" s="188" t="s">
+      <c r="Z8" s="184"/>
+      <c r="AA8" s="184"/>
+      <c r="AB8" s="184"/>
+      <c r="AC8" s="184"/>
+      <c r="AD8" s="184"/>
+      <c r="AE8" s="184"/>
+      <c r="AF8" s="184"/>
+      <c r="AG8" s="185" t="s">
         <v>73</v>
       </c>
-      <c r="AH8" s="188"/>
+      <c r="AH8" s="185"/>
       <c r="AI8" s="159" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="13.5" customHeight="1">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="186" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="189"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="189"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="186"/>
       <c r="K9" s="108" t="str">
         <f>IF(SUM(S11:X41)=0," ",COUNTIF(S11:X41,"&gt;0"))</f>
         <v xml:space="preserve"> </v>
@@ -5084,67 +5120,67 @@
       <c r="L9" s="1"/>
       <c r="M9" s="103"/>
       <c r="N9" s="106"/>
-      <c r="O9" s="190" t="s">
+      <c r="O9" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="190" t="s">
+      <c r="P9" s="187" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="190" t="s">
+      <c r="Q9" s="187" t="s">
         <v>76</v>
       </c>
-      <c r="R9" s="190" t="s">
+      <c r="R9" s="187" t="s">
         <v>76</v>
       </c>
-      <c r="S9" s="168" t="s">
+      <c r="S9" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="T9" s="168" t="s">
+      <c r="T9" s="174" t="s">
         <v>78</v>
       </c>
-      <c r="U9" s="168" t="s">
+      <c r="U9" s="174" t="s">
         <v>79</v>
       </c>
-      <c r="V9" s="168" t="s">
+      <c r="V9" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="W9" s="168" t="s">
+      <c r="W9" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="X9" s="168" t="s">
+      <c r="X9" s="174" t="s">
         <v>82</v>
       </c>
-      <c r="Y9" s="191" t="s">
+      <c r="Y9" s="188" t="s">
         <v>83</v>
       </c>
-      <c r="Z9" s="191"/>
-      <c r="AA9" s="191"/>
-      <c r="AB9" s="191"/>
-      <c r="AC9" s="191"/>
-      <c r="AD9" s="191"/>
-      <c r="AE9" s="191" t="s">
+      <c r="Z9" s="188"/>
+      <c r="AA9" s="188"/>
+      <c r="AB9" s="188"/>
+      <c r="AC9" s="188"/>
+      <c r="AD9" s="188"/>
+      <c r="AE9" s="188" t="s">
         <v>84</v>
       </c>
-      <c r="AF9" s="191"/>
-      <c r="AG9" s="192" t="s">
+      <c r="AF9" s="188"/>
+      <c r="AG9" s="189" t="s">
         <v>85</v>
       </c>
-      <c r="AH9" s="192"/>
+      <c r="AH9" s="189"/>
       <c r="AI9" s="109"/>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="183" t="s">
+      <c r="A10" s="190" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="183"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="183"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="183"/>
+      <c r="B10" s="190"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="190"/>
       <c r="K10" s="110" t="str">
         <f>IF(SUM(S11:X41)=0," ",COUNTIF(S11:X41,"&gt; 1.49"))</f>
         <v xml:space="preserve"> </v>
@@ -5152,16 +5188,16 @@
       <c r="L10" s="1"/>
       <c r="M10" s="102"/>
       <c r="N10" s="106"/>
-      <c r="O10" s="190"/>
-      <c r="P10" s="190"/>
-      <c r="Q10" s="190"/>
-      <c r="R10" s="190"/>
-      <c r="S10" s="168"/>
-      <c r="T10" s="168"/>
-      <c r="U10" s="168"/>
-      <c r="V10" s="168"/>
-      <c r="W10" s="168"/>
-      <c r="X10" s="168"/>
+      <c r="O10" s="187"/>
+      <c r="P10" s="187"/>
+      <c r="Q10" s="187"/>
+      <c r="R10" s="187"/>
+      <c r="S10" s="174"/>
+      <c r="T10" s="174"/>
+      <c r="U10" s="174"/>
+      <c r="V10" s="174"/>
+      <c r="W10" s="174"/>
+      <c r="X10" s="174"/>
       <c r="Y10" s="160" t="s">
         <v>87</v>
       </c>
@@ -5180,10 +5216,10 @@
       <c r="AD10" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="AE10" s="185" t="s">
+      <c r="AE10" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="AF10" s="185"/>
+      <c r="AF10" s="192"/>
       <c r="AG10" s="161" t="s">
         <v>94</v>
       </c>
@@ -5193,18 +5229,18 @@
       <c r="AI10" s="113"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="183" t="s">
+      <c r="A11" s="190" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="183"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="183"/>
+      <c r="B11" s="190"/>
+      <c r="C11" s="190"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="190"/>
       <c r="K11" s="114" t="str">
         <f>IF(SUM(S11:X41)=0," ",MAX(S11:X41))</f>
         <v xml:space="preserve"> </v>
@@ -5239,18 +5275,18 @@
       <c r="AI11" s="122"/>
     </row>
     <row r="12" spans="1:35" ht="15">
-      <c r="A12" s="186" t="s">
+      <c r="A12" s="193" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="186"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="186"/>
-      <c r="J12" s="186"/>
+      <c r="B12" s="193"/>
+      <c r="C12" s="193"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="193"/>
       <c r="K12" s="123" t="str">
         <f>IF(SUM(S11:X41)=0," ",COUNTIF(S11:X41,"&gt; 0.349"))</f>
         <v xml:space="preserve"> </v>
@@ -5286,19 +5322,19 @@
       <c r="AI12" s="122"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="184" t="s">
+      <c r="A13" s="191" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="184"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="184"/>
-      <c r="F13" s="184"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="184"/>
-      <c r="J13" s="184"/>
-      <c r="K13" s="184"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="191"/>
+      <c r="E13" s="191"/>
+      <c r="F13" s="191"/>
+      <c r="G13" s="191"/>
+      <c r="H13" s="191"/>
+      <c r="I13" s="191"/>
+      <c r="J13" s="191"/>
+      <c r="K13" s="191"/>
       <c r="L13" s="6"/>
       <c r="M13" s="127"/>
       <c r="N13" s="87"/>
@@ -5327,18 +5363,18 @@
       <c r="AI13" s="122"/>
     </row>
     <row r="14" spans="1:35" ht="15">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="194" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="187"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="187"/>
-      <c r="J14" s="187"/>
+      <c r="B14" s="194"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="194"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="194"/>
       <c r="K14" s="108" t="str">
         <f>IF(SUM(Y11:AD41)=0," ",COUNTIF(Y11:AD41,"&gt;0"))</f>
         <v xml:space="preserve"> </v>
@@ -5371,18 +5407,18 @@
       <c r="AI14" s="122"/>
     </row>
     <row r="15" spans="1:35" ht="15">
-      <c r="A15" s="183" t="s">
+      <c r="A15" s="190" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="183"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="183"/>
+      <c r="B15" s="190"/>
+      <c r="C15" s="190"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="190"/>
       <c r="K15" s="110" t="str">
         <f>IF(SUM(Y11:AD41)=0," ",COUNTIF(Y11:AD41,"&lt;1.0"))</f>
         <v xml:space="preserve"> </v>
@@ -5459,19 +5495,19 @@
       <c r="AI16" s="122"/>
     </row>
     <row r="17" spans="1:35">
-      <c r="A17" s="184" t="s">
+      <c r="A17" s="191" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="184"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="184"/>
-      <c r="E17" s="184"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="184"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="184"/>
-      <c r="J17" s="184"/>
-      <c r="K17" s="184"/>
+      <c r="B17" s="191"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="191"/>
+      <c r="F17" s="191"/>
+      <c r="G17" s="191"/>
+      <c r="H17" s="191"/>
+      <c r="I17" s="191"/>
+      <c r="J17" s="191"/>
+      <c r="K17" s="191"/>
       <c r="L17" s="6"/>
       <c r="M17" s="102"/>
       <c r="N17" s="106"/>
@@ -6512,13 +6548,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="P8:X8"/>
-    <mergeCell ref="Y8:AF8"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A14:J14"/>
     <mergeCell ref="AG8:AH8"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="O9:O10"/>
@@ -6535,13 +6571,13 @@
     <mergeCell ref="AE9:AF9"/>
     <mergeCell ref="AG9:AH9"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="Y8:AF8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
